--- a/Revisión de literatura/literature_review.xlsx
+++ b/Revisión de literatura/literature_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanrengifo101/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO_PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FF02FB-D602-DA4B-8069-C0D1F3A6D969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B2AC99-511B-4B80-A6A9-551FC2CDA118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15780" activeTab="1" xr2:uid="{0FF652F1-D738-497E-889F-D9943026092A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FF652F1-D738-497E-889F-D9943026092A}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>Nombre</t>
   </si>
@@ -238,6 +238,48 @@
   </si>
   <si>
     <t>Leybourne-McCabe</t>
+  </si>
+  <si>
+    <t>Comparación y evaluación de pronosticos de la Tasa Representativa del Mercado TRM</t>
+  </si>
+  <si>
+    <t>TRM</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3LdaEOM</t>
+  </si>
+  <si>
+    <t>Modelación y pronóstico de la TRM a partir de un modelo de saltos de difusión, un modelo de Black and Scholes y un modelo ARIMA, así como la comparación de los resultados de pronóstico entre ellos</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3qEZfzA</t>
+  </si>
+  <si>
+    <t>EFECTOS DE LOS CHOQUES DE LOS PRECIOS EN EL WTI SOBRE LA TASA DE CAMBIO (TRM) EN COLOMBIA</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3uznfW3</t>
+  </si>
+  <si>
+    <t>TRM y Petroleo WTI</t>
+  </si>
+  <si>
+    <t>Efecto de las variables macroeconómicas globales y locales sobre el comportamiento de los futuros de la TRM en Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRM </t>
+  </si>
+  <si>
+    <t>https://bit.ly/36Nkrwc</t>
+  </si>
+  <si>
+    <t>PROYECCIÓN DE LA TASA DE CAMBIO DE COLOMBIA BAJO CONDICIONES DE PPA: EVIDENCIA EMPÍRICA USANDO VAR</t>
+  </si>
+  <si>
+    <t>Ppaper</t>
+  </si>
+  <si>
+    <t>https://bit.ly/36pqjfv</t>
   </si>
 </sst>
 </file>
@@ -424,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -452,12 +494,29 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -494,7 +553,105 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <name val="Calibri "/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -502,9 +659,9 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -538,118 +695,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <name val="Calibri "/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -664,20 +709,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Tabla1" displayName="Tabla1" ref="A1:D8" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:D8" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Tabla1" displayName="Tabla1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:D13" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5D274B06-4DAE-144E-90B9-0BA3ED60490F}" name="Variable" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{9D30B192-68D5-AC48-A02C-FDA7B31B2E20}" name="Tipo de documento" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B5254A15-6DAF-4046-8E1A-41B966E4E7FB}" name="Nombre" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{DDFF48D1-66E2-CC43-BC52-DF6D61D08A0D}" name="Fuente" dataDxfId="6" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="1" xr3:uid="{5D274B06-4DAE-144E-90B9-0BA3ED60490F}" name="Variable" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9D30B192-68D5-AC48-A02C-FDA7B31B2E20}" name="Tipo de documento" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B5254A15-6DAF-4046-8E1A-41B966E4E7FB}" name="Nombre" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{DDFF48D1-66E2-CC43-BC52-DF6D61D08A0D}" name="Fuente" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0A5E652-BA55-7D40-82DA-7B0F8853B44C}" name="Tabla2" displayName="Tabla2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0A5E652-BA55-7D40-82DA-7B0F8853B44C}" name="Tabla2" displayName="Tabla2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:E6" xr:uid="{C0A5E652-BA55-7D40-82DA-7B0F8853B44C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2B2D12B4-0C46-DB4E-A1FA-E039903AE650}" name="Tema"/>
@@ -691,7 +736,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -987,21 +1032,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B040F3FE-2291-4213-9DA7-4BDF5F8EFDCD}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
@@ -1015,7 +1060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32">
+    <row r="2" spans="1:4" ht="28.5">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +1074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="32">
+    <row r="3" spans="1:4" ht="28.5">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32">
+    <row r="4" spans="1:4" ht="28.5">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32">
+    <row r="5" spans="1:4" ht="28.5">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32">
+    <row r="6" spans="1:4" ht="28.5">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1085,7 +1130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="32">
+    <row r="7" spans="1:4" ht="28.5">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1099,7 +1144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16">
+    <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1111,6 +1156,76 @@
       </c>
       <c r="D8" s="8" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5">
+      <c r="A9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57">
+      <c r="A10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42.75">
+      <c r="A11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42.75">
+      <c r="A12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1122,10 +1237,11 @@
     <hyperlink ref="D7" r:id="rId5" xr:uid="{8D47FE61-FA95-4118-9C1F-E786403B5670}"/>
     <hyperlink ref="D2" r:id="rId6" xr:uid="{BA9BBF5E-9F63-40BB-BC83-987CED5E1885}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{77AA0D83-7EAA-4BCB-82D1-5A8FC3D963F8}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{3822AB08-3A3E-45E0-9E0E-04FEFE64C450}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1134,20 +1250,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1C6351-3367-684A-8ABE-9477B42A0BA8}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="177" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
@@ -1246,14 +1362,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D0BEF9-6A14-3443-990D-1A879ED8A51B}">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="164" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Revisión de literatura/literature_review.xlsx
+++ b/Revisión de literatura/literature_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO_PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B2AC99-511B-4B80-A6A9-551FC2CDA118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112E1856-854A-42C3-9129-05313CC47D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FF652F1-D738-497E-889F-D9943026092A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0FF652F1-D738-497E-889F-D9943026092A}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,35 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3E1E6C34-57B1-4051-80B4-D0E289F6FEA4}</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3E1E6C34-57B1-4051-80B4-D0E289F6FEA4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Rojo: Sin revisar
+Amarillo: En revisión
+Verde: Revisado
+Nombre de los que lo hayan revisado</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="116">
   <si>
     <t>Nombre</t>
   </si>
@@ -177,9 +197,6 @@
     <t>Augmented Dickey Fuller (1984)</t>
   </si>
   <si>
-    <t>No stationary</t>
-  </si>
-  <si>
     <t>pp.test</t>
   </si>
   <si>
@@ -192,9 +209,6 @@
     <t>Stationary</t>
   </si>
   <si>
-    <t>Dice que es estacionario cuando no lo es</t>
-  </si>
-  <si>
     <t>urca</t>
   </si>
   <si>
@@ -204,15 +218,9 @@
     <t xml:space="preserve">Performs the Elliott, Rothenberg &amp; Stock </t>
   </si>
   <si>
-    <t xml:space="preserve">Schmidt \&amp; Phillips </t>
-  </si>
-  <si>
     <t>ur.sp</t>
   </si>
   <si>
-    <t xml:space="preserve">Zivot \&amp; Andrews </t>
-  </si>
-  <si>
     <t>ur.za</t>
   </si>
   <si>
@@ -276,35 +284,140 @@
     <t>PROYECCIÓN DE LA TASA DE CAMBIO DE COLOMBIA BAJO CONDICIONES DE PPA: EVIDENCIA EMPÍRICA USANDO VAR</t>
   </si>
   <si>
-    <t>Ppaper</t>
-  </si>
-  <si>
     <t>https://bit.ly/36pqjfv</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>The exchange rate and macroeconomic determinants: Time-varying transitional dynamics</t>
+  </si>
+  <si>
+    <t>The exchange rate and macroeconomic determinants: Time-varying transitional dynamics - ScienceDirect</t>
+  </si>
+  <si>
+    <t>Exchange rate dynamics in a peripheral monetary economy on JSTOR</t>
+  </si>
+  <si>
+    <t>Journal article</t>
+  </si>
+  <si>
+    <t>Exchange rate dynamics in a peripheral monetary economy</t>
+  </si>
+  <si>
+    <t>Why is it so difficult to beat the random walk forecast of exchange rates?</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Why is it so difficult to beat the random walk forecast of exchange rates? - ScienceDirect</t>
+  </si>
+  <si>
+    <t>Exchange rate forecasting on a napkin</t>
+  </si>
+  <si>
+    <t>Exchange rate forecasting on a napkin - ScienceDirect</t>
+  </si>
+  <si>
+    <t>Forecasting exchange rates using principal components - ScienceDirect</t>
+  </si>
+  <si>
+    <t>Forecasting exchange rates using principal components</t>
+  </si>
+  <si>
+    <t>Leer Isa o Mari</t>
+  </si>
+  <si>
+    <t>No sé</t>
+  </si>
+  <si>
+    <t>Exchange Rates, Interest Parity, and the Carry Trade</t>
+  </si>
+  <si>
+    <t>Exchange Rates, Interest Parity, and the Carry Trade | Oxford Research Encyclopedias</t>
+  </si>
+  <si>
+    <t>Liquidity and Exchange Rates: An Empirical Investigation | NBER</t>
+  </si>
+  <si>
+    <t>Liquidity and Exchange Rates: An Empirical Investigation</t>
+  </si>
+  <si>
+    <t>Working paper</t>
+  </si>
+  <si>
+    <t>Can commodity prices forecast exchange rates? - ScienceDirect</t>
+  </si>
+  <si>
+    <t>Can commodity prices forecast exchange rates?</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>When Is Foreign Exchange Intervention Effective? Evidence from 33 Countries</t>
+  </si>
+  <si>
+    <t>AEA Web - American Economic Journal: Macroeconomics - 11(1):132 - Abstract</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Data set</t>
+  </si>
+  <si>
+    <t>https://www.banrep.gov.co/en/node/50244</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Tasa Representativa del Mercado (TRM - Peso por dólar)</t>
+  </si>
+  <si>
+    <t>Data since 27/11/1991. Web scraping in python</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmidt &amp; Phillips </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zivot }&amp; Andrews </t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Unit roots</t>
+  </si>
+  <si>
+    <t>Dice que es estacionario cuando no lo es.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="Calibri "/>
     </font>
     <font>
       <u/>
@@ -323,12 +436,65 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="NimbusRomNo9L"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Candara"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,65 +507,29 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,92 +547,779 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -552,149 +1369,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF212529"/>
-        <name val="Calibri "/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -708,21 +1382,30 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Juan David Rengifo Castro" id="{6BE87DBE-91F1-4E63-BE5A-3FA704451263}" userId="S::jdrengifoc@eafit.edu.co::a3fa0b42-5912-4588-ac39-4f2781c7831c" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Tabla1" displayName="Tabla1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:D13" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5D274B06-4DAE-144E-90B9-0BA3ED60490F}" name="Variable" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{9D30B192-68D5-AC48-A02C-FDA7B31B2E20}" name="Tipo de documento" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B5254A15-6DAF-4046-8E1A-41B966E4E7FB}" name="Nombre" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{DDFF48D1-66E2-CC43-BC52-DF6D61D08A0D}" name="Fuente" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Variables" displayName="Variables" ref="A1:G23" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+  <autoFilter ref="A1:G23" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{5D274B06-4DAE-144E-90B9-0BA3ED60490F}" name="Variable" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{312D9853-9B84-40C9-B4A4-EDC49298F048}" name="Date" dataDxfId="21" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{9D30B192-68D5-AC48-A02C-FDA7B31B2E20}" name="Tipo de documento" dataDxfId="20" totalsRowDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{622B38FB-511E-49B0-AF75-C0496083B0B6}" name="Título" dataDxfId="19" totalsRowDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{DD15A7AB-6B34-485B-AF64-148F61BD6674}" name="Observaciones" dataDxfId="18" totalsRowDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B5254A15-6DAF-4046-8E1A-41B966E4E7FB}" name="Estado" dataDxfId="17" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{DDFF48D1-66E2-CC43-BC52-DF6D61D08A0D}" name="Fuente" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0A5E652-BA55-7D40-82DA-7B0F8853B44C}" name="Tabla2" displayName="Tabla2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0A5E652-BA55-7D40-82DA-7B0F8853B44C}" name="Tabla2" displayName="Tabla2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
   <autoFilter ref="A1:E6" xr:uid="{C0A5E652-BA55-7D40-82DA-7B0F8853B44C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2B2D12B4-0C46-DB4E-A1FA-E039903AE650}" name="Tema"/>
@@ -732,6 +1415,22 @@
     <tableColumn id="5" xr3:uid="{C10F5FD5-3490-E840-8A15-6F94C9756D5B}" name="Fuente"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF45F2D4-1B4A-40CA-ACFB-63BED804DC74}" name="Table3" displayName="Table3" ref="B2:H9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="B2:H9" xr:uid="{FF45F2D4-1B4A-40CA-ACFB-63BED804DC74}"/>
+  <tableColumns count="7">
+    <tableColumn id="7" xr3:uid="{3290DFF8-2094-41CF-9BFA-3698264ACFDF}" name="Language" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{77922E11-3DFE-4484-9CFC-91177468E37F}" name="Package" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F580F7CA-C2F2-4413-A4A5-1B92313F9BE5}" name="Function name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{543356C6-2B4E-465B-A9E2-E2717B481293}" name="Unit root test" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{49545675-5CFD-4305-98A8-2D27F77D91E5}" name="Null hypotesis" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{2381A85F-CE68-4776-A6AB-E1C1FE106417}" name="Assumptions" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{7C5FE8D2-21F6-42DC-8B0B-F59492B3D8F4}" name="Disadvantages" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1030,218 +1729,470 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F1" dT="2022-03-29T02:38:23.49" personId="{6BE87DBE-91F1-4E63-BE5A-3FA704451263}" id="{3E1E6C34-57B1-4051-80B4-D0E289F6FEA4}">
+    <text>Rojo: Sin revisar
+Amarillo: En revisión
+Verde: Revisado
+Nombre de los que lo hayan revisado</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B040F3FE-2291-4213-9DA7-4BDF5F8EFDCD}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B040F3FE-2291-4213-9DA7-4BDF5F8EFDCD}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="93.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="6"/>
+    <col min="7" max="7" width="96.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.5">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="57">
-      <c r="A10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="D12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="42.75">
-      <c r="A11" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42.75">
-      <c r="A12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="D14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8">
+        <v>2013</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8">
+        <v>2003</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>80</v>
+      <c r="D16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{90BC1AE4-D7BA-435C-A8DF-0CAF6788B158}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{6335E74F-18FA-4670-9F8D-4F662C191C03}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{6103154C-AB06-4B83-B37F-88E5BB929870}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{116DF696-9304-432C-A4AA-20752210340D}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{8D47FE61-FA95-4118-9C1F-E786403B5670}"/>
-    <hyperlink ref="D2" r:id="rId6" xr:uid="{BA9BBF5E-9F63-40BB-BC83-987CED5E1885}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{77AA0D83-7EAA-4BCB-82D1-5A8FC3D963F8}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{3822AB08-3A3E-45E0-9E0E-04FEFE64C450}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{90BC1AE4-D7BA-435C-A8DF-0CAF6788B158}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{6335E74F-18FA-4670-9F8D-4F662C191C03}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{6103154C-AB06-4B83-B37F-88E5BB929870}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{116DF696-9304-432C-A4AA-20752210340D}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{8D47FE61-FA95-4118-9C1F-E786403B5670}"/>
+    <hyperlink ref="G2" r:id="rId6" xr:uid="{BA9BBF5E-9F63-40BB-BC83-987CED5E1885}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{77AA0D83-7EAA-4BCB-82D1-5A8FC3D963F8}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{3822AB08-3A3E-45E0-9E0E-04FEFE64C450}"/>
+    <hyperlink ref="G14" r:id="rId9" display="https://www.sciencedirect.com/science/article/abs/pii/S1062940811000064?casa_token=Sh_P_mp_7DYAAAAA:lCFrsjKuUulZ65pcOcyJtjinpxciTLnVUuTqwICmX4gAWSWOv-lC5T8O41KFlJ0CuNGgKOBRWws" xr:uid="{04902175-CE83-4FD5-A445-E26573061A3B}"/>
+    <hyperlink ref="G15" r:id="rId10" display="https://www.jstor.org/stable/23469863?seq=1" xr:uid="{1F3D66BE-757E-4F95-A2DC-AF2AF58402F9}"/>
+    <hyperlink ref="G16" r:id="rId11" display="https://www.sciencedirect.com/science/article/abs/pii/S0022199602000600?casa_token=2JGoBa5PH1AAAAAA:2Q_si3XMDnRAAvyyVNi0_Uc992Ug0NAZh7foqBjsannbVjSScyfmuFkSW0J7d1pmIC8fnN535-s" xr:uid="{86934073-37A0-4641-A2A0-78C29B295BD9}"/>
+    <hyperlink ref="G17" r:id="rId12" display="https://www.sciencedirect.com/science/article/abs/pii/S026156061830192X?casa_token=aWwU043X6JEAAAAA:-mpNMFrrI4-JO2KngFFUkm_zbB2NqN-obHeqYF63eou3KjsmnJNWjboddrx2iC7zRRaWd-lZj6c" xr:uid="{2BB71505-CF86-40A8-BFED-899130582795}"/>
+    <hyperlink ref="G18" r:id="rId13" display="https://www.sciencedirect.com/science/article/abs/pii/S1042443118304517?casa_token=geVp6av0PkYAAAAA:Uu118yMXCUw8OYrKy7Le8OeDHzZKJ1YK_XjLvwlEV5i-Hwc85e76Pn4zk8-aSB_5oXmszSAUzdw" xr:uid="{1D65313B-6590-44CE-A661-046180A655A4}"/>
+    <hyperlink ref="G19" r:id="rId14" display="https://oxfordre.com/view/10.1093/acrefore/9780190625979.001.0001/acrefore-9780190625979-e-315" xr:uid="{06415AB0-6490-4A37-9D9F-2AC16B5FF538}"/>
+    <hyperlink ref="G20" r:id="rId15" display="https://www.nber.org/papers/w25397" xr:uid="{B517B450-91E0-4BC9-9CF2-99DFDE1CDF5D}"/>
+    <hyperlink ref="G21" r:id="rId16" display="https://www.sciencedirect.com/science/article/pii/S014098832030058X?casa_token=lvteMIiiiDwAAAAA:4fPs2dQpkOw2YsVs34Ljr4PWn7JSUgT_6IhH3VJ5I70tZtv3LNT--0bK_sZRFj0zGh8q2zW3vpg" xr:uid="{FA3CE04C-C5ED-4A9A-9014-6DCCF0A94F4F}"/>
+    <hyperlink ref="G22" r:id="rId17" display="https://pubs.aeaweb.org/doi/pdfplus/10.1257/mac.20150317" xr:uid="{5E64A5A2-269E-4CA1-A444-9870A82D4EC4}"/>
+    <hyperlink ref="G23" r:id="rId18" xr:uid="{90A62FB6-09E5-40EA-A000-43224542DA37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1250,37 +2201,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1C6351-3367-684A-8ABE-9477B42A0BA8}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="177" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="112.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1290,11 +2241,11 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1308,43 +2259,43 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1360,124 +2311,159 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D0BEF9-6A14-3443-990D-1A879ED8A51B}">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="2" max="2" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" t="s">
+      <c r="F4" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D6" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" t="s">
+      <c r="E6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E7" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
+      <c r="E8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Revisión de literatura/literature_review.xlsx
+++ b/Revisión de literatura/literature_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe Ruiz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE2B154-3991-42B2-B5E2-EA65BB0DD7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C84F6ED-D365-4811-84AC-706B02A39F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0FF652F1-D738-497E-889F-D9943026092A}"/>
   </bookViews>
@@ -29,15 +29,35 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3E1E6C34-57B1-4051-80B4-D0E289F6FEA4}</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3E1E6C34-57B1-4051-80B4-D0E289F6FEA4}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Rojo: Sin revisar
+Amarillo: En revisión
+Verde: Revisado
+Nombre de los que lo hayan revisado</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
   <si>
     <t>Nombre</t>
   </si>
@@ -177,9 +197,6 @@
     <t>Augmented Dickey Fuller (1984)</t>
   </si>
   <si>
-    <t>No stationary</t>
-  </si>
-  <si>
     <t>pp.test</t>
   </si>
   <si>
@@ -192,9 +209,6 @@
     <t>Stationary</t>
   </si>
   <si>
-    <t>Dice que es estacionario cuando no lo es</t>
-  </si>
-  <si>
     <t>urca</t>
   </si>
   <si>
@@ -204,15 +218,9 @@
     <t xml:space="preserve">Performs the Elliott, Rothenberg &amp; Stock </t>
   </si>
   <si>
-    <t xml:space="preserve">Schmidt \&amp; Phillips </t>
-  </si>
-  <si>
     <t>ur.sp</t>
   </si>
   <si>
-    <t xml:space="preserve">Zivot \&amp; Andrews </t>
-  </si>
-  <si>
     <t>ur.za</t>
   </si>
   <si>
@@ -276,35 +284,143 @@
     <t>PROYECCIÓN DE LA TASA DE CAMBIO DE COLOMBIA BAJO CONDICIONES DE PPA: EVIDENCIA EMPÍRICA USANDO VAR</t>
   </si>
   <si>
-    <t>Ppaper</t>
-  </si>
-  <si>
     <t>https://bit.ly/36pqjfv</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>The exchange rate and macroeconomic determinants: Time-varying transitional dynamics</t>
+  </si>
+  <si>
+    <t>The exchange rate and macroeconomic determinants: Time-varying transitional dynamics - ScienceDirect</t>
+  </si>
+  <si>
+    <t>Exchange rate dynamics in a peripheral monetary economy on JSTOR</t>
+  </si>
+  <si>
+    <t>Journal article</t>
+  </si>
+  <si>
+    <t>Exchange rate dynamics in a peripheral monetary economy</t>
+  </si>
+  <si>
+    <t>Why is it so difficult to beat the random walk forecast of exchange rates?</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Why is it so difficult to beat the random walk forecast of exchange rates? - ScienceDirect</t>
+  </si>
+  <si>
+    <t>Exchange rate forecasting on a napkin</t>
+  </si>
+  <si>
+    <t>Exchange rate forecasting on a napkin - ScienceDirect</t>
+  </si>
+  <si>
+    <t>Forecasting exchange rates using principal components - ScienceDirect</t>
+  </si>
+  <si>
+    <t>Forecasting exchange rates using principal components</t>
+  </si>
+  <si>
+    <t>Leer Isa o Mari</t>
+  </si>
+  <si>
+    <t>No sé</t>
+  </si>
+  <si>
+    <t>Exchange Rates, Interest Parity, and the Carry Trade</t>
+  </si>
+  <si>
+    <t>Exchange Rates, Interest Parity, and the Carry Trade | Oxford Research Encyclopedias</t>
+  </si>
+  <si>
+    <t>Liquidity and Exchange Rates: An Empirical Investigation | NBER</t>
+  </si>
+  <si>
+    <t>Liquidity and Exchange Rates: An Empirical Investigation</t>
+  </si>
+  <si>
+    <t>Working paper</t>
+  </si>
+  <si>
+    <t>Can commodity prices forecast exchange rates? - ScienceDirect</t>
+  </si>
+  <si>
+    <t>Can commodity prices forecast exchange rates?</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>When Is Foreign Exchange Intervention Effective? Evidence from 33 Countries</t>
+  </si>
+  <si>
+    <t>AEA Web - American Economic Journal: Macroeconomics - 11(1):132 - Abstract</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Data set</t>
+  </si>
+  <si>
+    <t>https://www.banrep.gov.co/en/node/50244</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Tasa Representativa del Mercado (TRM - Peso por dólar)</t>
+  </si>
+  <si>
+    <t>Data since 27/11/1991. Web scraping in python</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmidt &amp; Phillips </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zivot }&amp; Andrews </t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Unit roots</t>
+  </si>
+  <si>
+    <t>Dice que es estacionario cuando no lo es.</t>
+  </si>
+  <si>
+    <t>Adrian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="Calibri "/>
     </font>
     <font>
       <u/>
@@ -323,12 +439,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="NimbusRomNo9L"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Candara"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,65 +504,35 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,92 +550,306 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="3" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -553,19 +900,55 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color auto="1"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </left>
         <right/>
         <top style="thin">
-          <color auto="1"/>
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
         </top>
         <bottom style="thin">
-          <color auto="1"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -579,92 +962,389 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color rgb="FF212529"/>
-        <name val="Calibri "/>
+        <name val="Candara"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color auto="1"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </left>
         <right style="thin">
-          <color auto="1"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </right>
         <top style="thin">
-          <color auto="1"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </top>
         <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -673,9 +1353,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -686,10 +1366,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color auto="1"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </left>
         <right style="thin">
-          <color auto="1"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </right>
         <top/>
         <bottom/>
@@ -697,6 +1377,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -708,21 +1394,30 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Juan David Rengifo Castro" id="{6BE87DBE-91F1-4E63-BE5A-3FA704451263}" userId="S::jdrengifoc@eafit.edu.co::a3fa0b42-5912-4588-ac39-4f2781c7831c" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Tabla1" displayName="Tabla1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:D13" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5D274B06-4DAE-144E-90B9-0BA3ED60490F}" name="Variable" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{9D30B192-68D5-AC48-A02C-FDA7B31B2E20}" name="Tipo de documento" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B5254A15-6DAF-4046-8E1A-41B966E4E7FB}" name="Nombre" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{DDFF48D1-66E2-CC43-BC52-DF6D61D08A0D}" name="Fuente" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Variables" displayName="Variables" ref="A1:G23" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:G23" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{5D274B06-4DAE-144E-90B9-0BA3ED60490F}" name="Variable" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{312D9853-9B84-40C9-B4A4-EDC49298F048}" name="Date" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{9D30B192-68D5-AC48-A02C-FDA7B31B2E20}" name="Tipo de documento" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{622B38FB-511E-49B0-AF75-C0496083B0B6}" name="Título" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{DD15A7AB-6B34-485B-AF64-148F61BD6674}" name="Observaciones" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{B5254A15-6DAF-4046-8E1A-41B966E4E7FB}" name="Estado" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{DDFF48D1-66E2-CC43-BC52-DF6D61D08A0D}" name="Fuente" totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0A5E652-BA55-7D40-82DA-7B0F8853B44C}" name="Tabla2" displayName="Tabla2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0A5E652-BA55-7D40-82DA-7B0F8853B44C}" name="Tabla2" displayName="Tabla2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A1:E6" xr:uid="{C0A5E652-BA55-7D40-82DA-7B0F8853B44C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2B2D12B4-0C46-DB4E-A1FA-E039903AE650}" name="Tema"/>
@@ -732,6 +1427,22 @@
     <tableColumn id="5" xr3:uid="{C10F5FD5-3490-E840-8A15-6F94C9756D5B}" name="Fuente"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF45F2D4-1B4A-40CA-ACFB-63BED804DC74}" name="Table3" displayName="Table3" ref="B2:H9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B2:H9" xr:uid="{FF45F2D4-1B4A-40CA-ACFB-63BED804DC74}"/>
+  <tableColumns count="7">
+    <tableColumn id="7" xr3:uid="{3290DFF8-2094-41CF-9BFA-3698264ACFDF}" name="Language" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{77922E11-3DFE-4484-9CFC-91177468E37F}" name="Package" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F580F7CA-C2F2-4413-A4A5-1B92313F9BE5}" name="Function name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{543356C6-2B4E-465B-A9E2-E2717B481293}" name="Unit root test" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{49545675-5CFD-4305-98A8-2D27F77D91E5}" name="Null hypotesis" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{2381A85F-CE68-4776-A6AB-E1C1FE106417}" name="Assumptions" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{7C5FE8D2-21F6-42DC-8B0B-F59492B3D8F4}" name="Disadvantages" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1030,218 +1741,472 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F1" dT="2022-03-29T02:38:23.49" personId="{6BE87DBE-91F1-4E63-BE5A-3FA704451263}" id="{3E1E6C34-57B1-4051-80B4-D0E289F6FEA4}">
+    <text>Rojo: Sin revisar
+Amarillo: En revisión
+Verde: Revisado
+Nombre de los que lo hayan revisado</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B040F3FE-2291-4213-9DA7-4BDF5F8EFDCD}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B040F3FE-2291-4213-9DA7-4BDF5F8EFDCD}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="93.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="6"/>
+    <col min="7" max="7" width="96.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.5">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="57">
-      <c r="A10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="D12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="42.75">
-      <c r="A11" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42.75">
-      <c r="A12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="D14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8">
+        <v>2013</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8">
+        <v>2003</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>80</v>
+      <c r="D16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{90BC1AE4-D7BA-435C-A8DF-0CAF6788B158}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{6335E74F-18FA-4670-9F8D-4F662C191C03}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{6103154C-AB06-4B83-B37F-88E5BB929870}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{116DF696-9304-432C-A4AA-20752210340D}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{8D47FE61-FA95-4118-9C1F-E786403B5670}"/>
-    <hyperlink ref="D2" r:id="rId6" xr:uid="{BA9BBF5E-9F63-40BB-BC83-987CED5E1885}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{77AA0D83-7EAA-4BCB-82D1-5A8FC3D963F8}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{3822AB08-3A3E-45E0-9E0E-04FEFE64C450}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{90BC1AE4-D7BA-435C-A8DF-0CAF6788B158}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{6335E74F-18FA-4670-9F8D-4F662C191C03}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{6103154C-AB06-4B83-B37F-88E5BB929870}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{116DF696-9304-432C-A4AA-20752210340D}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{8D47FE61-FA95-4118-9C1F-E786403B5670}"/>
+    <hyperlink ref="G2" r:id="rId6" xr:uid="{BA9BBF5E-9F63-40BB-BC83-987CED5E1885}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{77AA0D83-7EAA-4BCB-82D1-5A8FC3D963F8}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{3822AB08-3A3E-45E0-9E0E-04FEFE64C450}"/>
+    <hyperlink ref="G14" r:id="rId9" display="https://www.sciencedirect.com/science/article/abs/pii/S1062940811000064?casa_token=Sh_P_mp_7DYAAAAA:lCFrsjKuUulZ65pcOcyJtjinpxciTLnVUuTqwICmX4gAWSWOv-lC5T8O41KFlJ0CuNGgKOBRWws" xr:uid="{04902175-CE83-4FD5-A445-E26573061A3B}"/>
+    <hyperlink ref="G15" r:id="rId10" display="https://www.jstor.org/stable/23469863?seq=1" xr:uid="{1F3D66BE-757E-4F95-A2DC-AF2AF58402F9}"/>
+    <hyperlink ref="G16" r:id="rId11" display="https://www.sciencedirect.com/science/article/abs/pii/S0022199602000600?casa_token=2JGoBa5PH1AAAAAA:2Q_si3XMDnRAAvyyVNi0_Uc992Ug0NAZh7foqBjsannbVjSScyfmuFkSW0J7d1pmIC8fnN535-s" xr:uid="{86934073-37A0-4641-A2A0-78C29B295BD9}"/>
+    <hyperlink ref="G17" r:id="rId12" display="https://www.sciencedirect.com/science/article/abs/pii/S026156061830192X?casa_token=aWwU043X6JEAAAAA:-mpNMFrrI4-JO2KngFFUkm_zbB2NqN-obHeqYF63eou3KjsmnJNWjboddrx2iC7zRRaWd-lZj6c" xr:uid="{2BB71505-CF86-40A8-BFED-899130582795}"/>
+    <hyperlink ref="G18" r:id="rId13" display="https://www.sciencedirect.com/science/article/abs/pii/S1042443118304517?casa_token=geVp6av0PkYAAAAA:Uu118yMXCUw8OYrKy7Le8OeDHzZKJ1YK_XjLvwlEV5i-Hwc85e76Pn4zk8-aSB_5oXmszSAUzdw" xr:uid="{1D65313B-6590-44CE-A661-046180A655A4}"/>
+    <hyperlink ref="G19" r:id="rId14" display="https://oxfordre.com/view/10.1093/acrefore/9780190625979.001.0001/acrefore-9780190625979-e-315" xr:uid="{06415AB0-6490-4A37-9D9F-2AC16B5FF538}"/>
+    <hyperlink ref="G20" r:id="rId15" display="https://www.nber.org/papers/w25397" xr:uid="{B517B450-91E0-4BC9-9CF2-99DFDE1CDF5D}"/>
+    <hyperlink ref="G21" r:id="rId16" display="https://www.sciencedirect.com/science/article/pii/S014098832030058X?casa_token=lvteMIiiiDwAAAAA:4fPs2dQpkOw2YsVs34Ljr4PWn7JSUgT_6IhH3VJ5I70tZtv3LNT--0bK_sZRFj0zGh8q2zW3vpg" xr:uid="{FA3CE04C-C5ED-4A9A-9014-6DCCF0A94F4F}"/>
+    <hyperlink ref="G22" r:id="rId17" display="https://pubs.aeaweb.org/doi/pdfplus/10.1257/mac.20150317" xr:uid="{5E64A5A2-269E-4CA1-A444-9870A82D4EC4}"/>
+    <hyperlink ref="G23" r:id="rId18" xr:uid="{90A62FB6-09E5-40EA-A000-43224542DA37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1250,37 +2215,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1C6351-3367-684A-8ABE-9477B42A0BA8}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="177" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="112.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1290,11 +2255,11 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1308,43 +2273,43 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1360,124 +2325,159 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D0BEF9-6A14-3443-990D-1A879ED8A51B}">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="2" max="2" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" t="s">
+      <c r="F4" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D6" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" t="s">
+      <c r="E6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E7" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
+      <c r="E8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Revisión de literatura/literature_review.xlsx
+++ b/Revisión de literatura/literature_review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO_PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe Ruiz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112E1856-854A-42C3-9129-05313CC47D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB3D891-A253-4BCD-9B4B-896FCA7ECB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0FF652F1-D738-497E-889F-D9943026092A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0FF652F1-D738-497E-889F-D9943026092A}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,9 @@
   <commentList>
     <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3E1E6C34-57B1-4051-80B4-D0E289F6FEA4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Rojo: Sin revisar
 Amarillo: En revisión
 Verde: Revisado
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
   <si>
     <t>Nombre</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>Dice que es estacionario cuando no lo es.</t>
+  </si>
+  <si>
+    <t>Adrian</t>
   </si>
 </sst>
 </file>
@@ -450,12 +453,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Candara"/>
@@ -493,8 +490,14 @@
       <name val="Candara"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +523,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F565"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,55 +672,156 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="3" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -745,580 +855,6 @@
           <bgColor theme="2" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Candara"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1369,8 +905,489 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF8F565"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1389,23 +1406,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Variables" displayName="Variables" ref="A1:G23" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Variables" displayName="Variables" ref="A1:G23" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="A1:G23" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5D274B06-4DAE-144E-90B9-0BA3ED60490F}" name="Variable" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{312D9853-9B84-40C9-B4A4-EDC49298F048}" name="Date" dataDxfId="21" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{9D30B192-68D5-AC48-A02C-FDA7B31B2E20}" name="Tipo de documento" dataDxfId="20" totalsRowDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{622B38FB-511E-49B0-AF75-C0496083B0B6}" name="Título" dataDxfId="19" totalsRowDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{DD15A7AB-6B34-485B-AF64-148F61BD6674}" name="Observaciones" dataDxfId="18" totalsRowDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B5254A15-6DAF-4046-8E1A-41B966E4E7FB}" name="Estado" dataDxfId="17" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{DDFF48D1-66E2-CC43-BC52-DF6D61D08A0D}" name="Fuente" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{5D274B06-4DAE-144E-90B9-0BA3ED60490F}" name="Variable" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{312D9853-9B84-40C9-B4A4-EDC49298F048}" name="Date" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{9D30B192-68D5-AC48-A02C-FDA7B31B2E20}" name="Tipo de documento" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{622B38FB-511E-49B0-AF75-C0496083B0B6}" name="Título" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{DD15A7AB-6B34-485B-AF64-148F61BD6674}" name="Observaciones" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{B5254A15-6DAF-4046-8E1A-41B966E4E7FB}" name="Estado" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{DDFF48D1-66E2-CC43-BC52-DF6D61D08A0D}" name="Fuente" totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0A5E652-BA55-7D40-82DA-7B0F8853B44C}" name="Tabla2" displayName="Tabla2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0A5E652-BA55-7D40-82DA-7B0F8853B44C}" name="Tabla2" displayName="Tabla2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A1:E6" xr:uid="{C0A5E652-BA55-7D40-82DA-7B0F8853B44C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2B2D12B4-0C46-DB4E-A1FA-E039903AE650}" name="Tema"/>
@@ -1419,23 +1436,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF45F2D4-1B4A-40CA-ACFB-63BED804DC74}" name="Table3" displayName="Table3" ref="B2:H9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF45F2D4-1B4A-40CA-ACFB-63BED804DC74}" name="Table3" displayName="Table3" ref="B2:H9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B2:H9" xr:uid="{FF45F2D4-1B4A-40CA-ACFB-63BED804DC74}"/>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{3290DFF8-2094-41CF-9BFA-3698264ACFDF}" name="Language" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{77922E11-3DFE-4484-9CFC-91177468E37F}" name="Package" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{F580F7CA-C2F2-4413-A4A5-1B92313F9BE5}" name="Function name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{543356C6-2B4E-465B-A9E2-E2717B481293}" name="Unit root test" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{49545675-5CFD-4305-98A8-2D27F77D91E5}" name="Null hypotesis" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{2381A85F-CE68-4776-A6AB-E1C1FE106417}" name="Assumptions" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{7C5FE8D2-21F6-42DC-8B0B-F59492B3D8F4}" name="Disadvantages" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{3290DFF8-2094-41CF-9BFA-3698264ACFDF}" name="Language" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{77922E11-3DFE-4484-9CFC-91177468E37F}" name="Package" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F580F7CA-C2F2-4413-A4A5-1B92313F9BE5}" name="Function name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{543356C6-2B4E-465B-A9E2-E2717B481293}" name="Unit root test" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{49545675-5CFD-4305-98A8-2D27F77D91E5}" name="Null hypotesis" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{2381A85F-CE68-4776-A6AB-E1C1FE106417}" name="Assumptions" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{7C5FE8D2-21F6-42DC-8B0B-F59492B3D8F4}" name="Disadvantages" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1744,11 +1761,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B040F3FE-2291-4213-9DA7-4BDF5F8EFDCD}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="6" bestFit="1" customWidth="1"/>
@@ -2033,7 +2050,9 @@
         <v>83</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="17"/>
+      <c r="F16" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="G16" s="10" t="s">
         <v>86</v>
       </c>
@@ -2201,11 +2220,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1C6351-3367-684A-8ABE-9477B42A0BA8}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -2317,7 +2336,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="6"/>
     <col min="2" max="2" width="11.5703125" style="6" bestFit="1" customWidth="1"/>

--- a/Revisión de literatura/literature_review.xlsx
+++ b/Revisión de literatura/literature_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe Ruiz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB3D891-A253-4BCD-9B4B-896FCA7ECB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AFBB8B-7545-4CE4-9BE0-36CE4A1831A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0FF652F1-D738-497E-889F-D9943026092A}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
   <si>
     <t>Nombre</t>
   </si>
@@ -408,6 +408,12 @@
   </si>
   <si>
     <t>Adrian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informe de estadisticas monetarias y cambiarias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3DADPsD </t>
   </si>
 </sst>
 </file>
@@ -672,7 +678,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,6 +722,10 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -1406,8 +1416,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Variables" displayName="Variables" ref="A1:G23" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:G23" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Variables" displayName="Variables" ref="A1:G24" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:G24" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5D274B06-4DAE-144E-90B9-0BA3ED60490F}" name="Variable" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
     <tableColumn id="7" xr3:uid="{312D9853-9B84-40C9-B4A4-EDC49298F048}" name="Date" dataDxfId="23" totalsRowDxfId="22"/>
@@ -1759,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B040F3FE-2291-4213-9DA7-4BDF5F8EFDCD}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2184,6 +2194,21 @@
       </c>
       <c r="G23" s="15" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2206,12 +2231,13 @@
     <hyperlink ref="G21" r:id="rId16" display="https://www.sciencedirect.com/science/article/pii/S014098832030058X?casa_token=lvteMIiiiDwAAAAA:4fPs2dQpkOw2YsVs34Ljr4PWn7JSUgT_6IhH3VJ5I70tZtv3LNT--0bK_sZRFj0zGh8q2zW3vpg" xr:uid="{FA3CE04C-C5ED-4A9A-9014-6DCCF0A94F4F}"/>
     <hyperlink ref="G22" r:id="rId17" display="https://pubs.aeaweb.org/doi/pdfplus/10.1257/mac.20150317" xr:uid="{5E64A5A2-269E-4CA1-A444-9870A82D4EC4}"/>
     <hyperlink ref="G23" r:id="rId18" xr:uid="{90A62FB6-09E5-40EA-A000-43224542DA37}"/>
+    <hyperlink ref="G24" r:id="rId19" xr:uid="{1B1C80CF-9589-4862-B956-B7F5683D9DD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
-  <legacyDrawing r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
+  <legacyDrawing r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Revisión de literatura/literature_review.xlsx
+++ b/Revisión de literatura/literature_review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe Ruiz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AFBB8B-7545-4CE4-9BE0-36CE4A1831A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885135C6-8FC6-491E-8A11-D257DBFFB65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0FF652F1-D738-497E-889F-D9943026092A}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
   <si>
     <t>Nombre</t>
   </si>
@@ -408,19 +408,13 @@
   </si>
   <si>
     <t>Adrian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informe de estadisticas monetarias y cambiarias </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3DADPsD </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,8 +496,14 @@
       <name val="Candara"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +535,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F565"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +684,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -722,10 +728,9 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -1416,8 +1421,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Variables" displayName="Variables" ref="A1:G24" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:G24" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Variables" displayName="Variables" ref="A1:G23" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:G23" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5D274B06-4DAE-144E-90B9-0BA3ED60490F}" name="Variable" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
     <tableColumn id="7" xr3:uid="{312D9853-9B84-40C9-B4A4-EDC49298F048}" name="Date" dataDxfId="23" totalsRowDxfId="22"/>
@@ -1769,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B040F3FE-2291-4213-9DA7-4BDF5F8EFDCD}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2026,7 +2031,9 @@
         <v>78</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="17"/>
+      <c r="F14" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="G14" s="10" t="s">
         <v>79</v>
       </c>
@@ -2194,21 +2201,6 @@
       </c>
       <c r="G23" s="15" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2231,13 +2223,12 @@
     <hyperlink ref="G21" r:id="rId16" display="https://www.sciencedirect.com/science/article/pii/S014098832030058X?casa_token=lvteMIiiiDwAAAAA:4fPs2dQpkOw2YsVs34Ljr4PWn7JSUgT_6IhH3VJ5I70tZtv3LNT--0bK_sZRFj0zGh8q2zW3vpg" xr:uid="{FA3CE04C-C5ED-4A9A-9014-6DCCF0A94F4F}"/>
     <hyperlink ref="G22" r:id="rId17" display="https://pubs.aeaweb.org/doi/pdfplus/10.1257/mac.20150317" xr:uid="{5E64A5A2-269E-4CA1-A444-9870A82D4EC4}"/>
     <hyperlink ref="G23" r:id="rId18" xr:uid="{90A62FB6-09E5-40EA-A000-43224542DA37}"/>
-    <hyperlink ref="G24" r:id="rId19" xr:uid="{1B1C80CF-9589-4862-B956-B7F5683D9DD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
-  <legacyDrawing r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Revisión de literatura/literature_review.xlsx
+++ b/Revisión de literatura/literature_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe Ruiz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885135C6-8FC6-491E-8A11-D257DBFFB65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C23B73C-9AEC-4C7D-AF9A-A4F0B6ABA59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0FF652F1-D738-497E-889F-D9943026092A}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
   <si>
     <t>Nombre</t>
   </si>
@@ -408,6 +408,18 @@
   </si>
   <si>
     <t>Adrian</t>
+  </si>
+  <si>
+    <t>Politica monetaria</t>
+  </si>
+  <si>
+    <t>Noticia</t>
+  </si>
+  <si>
+    <t>Dólar cerró en $3.746,58 por las apuestas de la Fed para endurecer política monetaria</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3jfkPGX</t>
   </si>
 </sst>
 </file>
@@ -684,7 +696,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -731,6 +743,10 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -1421,8 +1437,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Variables" displayName="Variables" ref="A1:G23" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:G23" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Variables" displayName="Variables" ref="A1:G24" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:G24" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5D274B06-4DAE-144E-90B9-0BA3ED60490F}" name="Variable" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
     <tableColumn id="7" xr3:uid="{312D9853-9B84-40C9-B4A4-EDC49298F048}" name="Date" dataDxfId="23" totalsRowDxfId="22"/>
@@ -1774,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B040F3FE-2291-4213-9DA7-4BDF5F8EFDCD}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2201,6 +2217,23 @@
       </c>
       <c r="G23" s="15" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2223,12 +2256,13 @@
     <hyperlink ref="G21" r:id="rId16" display="https://www.sciencedirect.com/science/article/pii/S014098832030058X?casa_token=lvteMIiiiDwAAAAA:4fPs2dQpkOw2YsVs34Ljr4PWn7JSUgT_6IhH3VJ5I70tZtv3LNT--0bK_sZRFj0zGh8q2zW3vpg" xr:uid="{FA3CE04C-C5ED-4A9A-9014-6DCCF0A94F4F}"/>
     <hyperlink ref="G22" r:id="rId17" display="https://pubs.aeaweb.org/doi/pdfplus/10.1257/mac.20150317" xr:uid="{5E64A5A2-269E-4CA1-A444-9870A82D4EC4}"/>
     <hyperlink ref="G23" r:id="rId18" xr:uid="{90A62FB6-09E5-40EA-A000-43224542DA37}"/>
+    <hyperlink ref="G24" r:id="rId19" xr:uid="{878BAD48-7820-46C6-BF61-4BD85CA021E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
-  <legacyDrawing r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
+  <legacyDrawing r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Revisión de literatura/literature_review.xlsx
+++ b/Revisión de literatura/literature_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe Ruiz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C23B73C-9AEC-4C7D-AF9A-A4F0B6ABA59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0ECB24-F825-4CF2-A988-1FBFFD1B3F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0FF652F1-D738-497E-889F-D9943026092A}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
   <si>
     <t>Nombre</t>
   </si>
@@ -426,7 +426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,8 +514,14 @@
       <name val="Candara"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,6 +559,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +708,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -747,6 +759,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -1792,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B040F3FE-2291-4213-9DA7-4BDF5F8EFDCD}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2102,7 +2117,9 @@
         <v>87</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="17"/>
+      <c r="F17" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="G17" s="10" t="s">
         <v>88</v>
       </c>

--- a/Revisión de literatura/literature_review.xlsx
+++ b/Revisión de literatura/literature_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe Ruiz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0ECB24-F825-4CF2-A988-1FBFFD1B3F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045A4C10-E445-4BFD-B561-6E7EA61C8FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0FF652F1-D738-497E-889F-D9943026092A}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="123">
   <si>
     <t>Nombre</t>
   </si>
@@ -420,13 +420,19 @@
   </si>
   <si>
     <t>https://bit.ly/3jfkPGX</t>
+  </si>
+  <si>
+    <t>Can oil prices forecast exchange rates?</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0261560615000479</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,20 +514,8 @@
       <name val="Candara"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Candara"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Candara"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,18 +547,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F565"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +690,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,15 +734,12 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1452,8 +1431,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Variables" displayName="Variables" ref="A1:G24" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:G24" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Variables" displayName="Variables" ref="A1:G25" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:G25" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5D274B06-4DAE-144E-90B9-0BA3ED60490F}" name="Variable" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
     <tableColumn id="7" xr3:uid="{312D9853-9B84-40C9-B4A4-EDC49298F048}" name="Date" dataDxfId="23" totalsRowDxfId="22"/>
@@ -1805,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B040F3FE-2291-4213-9DA7-4BDF5F8EFDCD}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2062,7 +2041,7 @@
         <v>78</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="18" t="s">
         <v>116</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -2117,7 +2096,7 @@
         <v>87</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="18" t="s">
         <v>116</v>
       </c>
       <c r="G17" s="10" t="s">
@@ -2189,7 +2168,9 @@
         <v>99</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="17"/>
+      <c r="F21" s="18" t="s">
+        <v>116</v>
+      </c>
       <c r="G21" s="10" t="s">
         <v>98</v>
       </c>
@@ -2248,9 +2229,28 @@
         <v>119</v>
       </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23" t="s">
+      <c r="F24" s="21"/>
+      <c r="G24" s="22" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="13">
+        <v>2015</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="23" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2274,12 +2274,13 @@
     <hyperlink ref="G22" r:id="rId17" display="https://pubs.aeaweb.org/doi/pdfplus/10.1257/mac.20150317" xr:uid="{5E64A5A2-269E-4CA1-A444-9870A82D4EC4}"/>
     <hyperlink ref="G23" r:id="rId18" xr:uid="{90A62FB6-09E5-40EA-A000-43224542DA37}"/>
     <hyperlink ref="G24" r:id="rId19" xr:uid="{878BAD48-7820-46C6-BF61-4BD85CA021E5}"/>
+    <hyperlink ref="G25" r:id="rId20" xr:uid="{6FABA652-BAB5-429D-A673-DEBAB0B534CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
-  <legacyDrawing r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
+  <legacyDrawing r:id="rId22"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Revisión de literatura/literature_review.xlsx
+++ b/Revisión de literatura/literature_review.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe Ruiz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/jdrengifoc_eafit_edu_co/Documents/2022-1/E2-Econometría_2/Proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB3D891-A253-4BCD-9B4B-896FCA7ECB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="13_ncr:1_{54CFF70E-8AFB-4167-93A8-55C771538D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD768666-DBEC-4D44-B057-0A2992A35E2A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0FF652F1-D738-497E-889F-D9943026092A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{0FF652F1-D738-497E-889F-D9943026092A}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
-    <sheet name="Series de tiempo" sheetId="2" r:id="rId2"/>
-    <sheet name="Pruebas de raices unitarias" sheetId="3" r:id="rId3"/>
+    <sheet name="Automatización" sheetId="4" r:id="rId2"/>
+    <sheet name="Series de tiempo" sheetId="2" r:id="rId3"/>
+    <sheet name="Literature Review" sheetId="5" r:id="rId4"/>
+    <sheet name="Pruebas de raices unitarias" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,11 +44,11 @@
     <author>tc={3E1E6C34-57B1-4051-80B4-D0E289F6FEA4}</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3E1E6C34-57B1-4051-80B4-D0E289F6FEA4}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3E1E6C34-57B1-4051-80B4-D0E289F6FEA4}">
       <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Rojo: Sin revisar
 Amarillo: En revisión
 Verde: Revisado
@@ -57,114 +60,468 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="186">
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Tipo de documento</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>Modelos y métodos de estimación empleados</t>
+  </si>
+  <si>
+    <t>Resultados ¿Sirvió? ¿Qué tanto?</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Petroleo</t>
+  </si>
+  <si>
+    <t>Noticia la Repblica</t>
+  </si>
+  <si>
+    <t>Fuerte caída del petróleo por confinamiento en China y negociaciones Rusia-Ucrania</t>
+  </si>
+  <si>
+    <t>Bañol</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3N5KxuW</t>
+  </si>
+  <si>
+    <t>Petróleo vuelve a superar US$100 en medio de la advertencia de crisis de suministro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3wmCfch </t>
+  </si>
+  <si>
+    <t>Importaciones</t>
+  </si>
+  <si>
+    <t>Noticia de la República</t>
+  </si>
+  <si>
+    <t>Importaciones aumentaron 58,3% en enero y llegaron al total de US$6.050 millones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3ugB7Ek  </t>
+  </si>
+  <si>
+    <t>Tasa externa USA</t>
+  </si>
+  <si>
+    <t>Los bancos centrales del continente acuden a subidas de tasas por la presión del IPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3wnAaNp </t>
+  </si>
+  <si>
+    <t>¿Cómo impactará subida de la tasa de la FED en las próximas decisiones del Emisor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3N6ITti </t>
+  </si>
+  <si>
+    <t>Tasa domestica</t>
+  </si>
+  <si>
+    <t>Más que por alza de intervención Fed, tasa del Emisor estará impulsada por inflación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3L2Yfx8 </t>
+  </si>
+  <si>
+    <t>Politica monetaria BR</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Informe de politica monetaria 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3qlrP91 </t>
+  </si>
+  <si>
+    <t>TRM</t>
+  </si>
+  <si>
+    <t>Comparación y evaluación de pronosticos de la Tasa Representativa del Mercado TRM</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3LdaEOM</t>
+  </si>
+  <si>
+    <t>Modelación y pronóstico de la TRM a partir de un modelo de saltos de difusión, un modelo de Black and Scholes y un modelo ARIMA, así como la comparación de los resultados de pronóstico entre ellos</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3qEZfzA</t>
+  </si>
+  <si>
+    <t>TRM y Petroleo WTI</t>
+  </si>
+  <si>
+    <t>Relación entre el precio de l petroleo y la tasa de cambio: el caso colombiano (2000-2017)</t>
+  </si>
+  <si>
+    <t>https://bit.ly/36YHzs0</t>
+  </si>
+  <si>
+    <t>PROYECCIÓN DE LA TASA DE CAMBIO DE COLOMBIA BAJO CONDICIONES DE PPA: EVIDENCIA EMPÍRICA USANDO VAR</t>
+  </si>
+  <si>
+    <t>https://bit.ly/36pqjfv</t>
+  </si>
+  <si>
+    <t>The exchange rate and macroeconomic determinants: Time-varying transitional dynamics</t>
+  </si>
+  <si>
+    <t>The exchange rate and macroeconomic determinants: Time-varying transitional dynamics - ScienceDirect</t>
+  </si>
+  <si>
+    <t>Journal article</t>
+  </si>
+  <si>
+    <t>Exchange rate dynamics in a peripheral monetary economy</t>
+  </si>
+  <si>
+    <t>Exchange rate dynamics in a peripheral monetary economy on JSTOR</t>
+  </si>
+  <si>
+    <t>Why is it so difficult to beat the random walk forecast of exchange rates?</t>
+  </si>
+  <si>
+    <t>Why is it so difficult to beat the random walk forecast of exchange rates? - ScienceDirect</t>
+  </si>
+  <si>
+    <t>Exchange rate forecasting on a napkin</t>
+  </si>
+  <si>
+    <t>Exchange rate forecasting on a napkin - ScienceDirect</t>
+  </si>
+  <si>
+    <t>Forecasting exchange rates using principal components</t>
+  </si>
+  <si>
+    <t>Isa</t>
+  </si>
+  <si>
+    <t>Forecasting exchange rates using principal components - ScienceDirect</t>
+  </si>
+  <si>
+    <t>No sé</t>
+  </si>
+  <si>
+    <t>Exchange Rates, Interest Parity, and the Carry Trade</t>
+  </si>
+  <si>
+    <t>Exchange Rates, Interest Parity, and the Carry Trade | Oxford Research Encyclopedias</t>
+  </si>
+  <si>
+    <t>Working paper</t>
+  </si>
+  <si>
+    <t>Liquidity and Exchange Rates: An Empirical Investigation</t>
+  </si>
+  <si>
+    <t>Mari</t>
+  </si>
+  <si>
+    <t>Liquidity and Exchange Rates: An Empirical Investigation | NBER</t>
+  </si>
+  <si>
+    <t>Can commodity prices forecast exchange rates?</t>
+  </si>
+  <si>
+    <t>Can commodity prices forecast exchange rates? - ScienceDirect</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>When Is Foreign Exchange Intervention Effective? Evidence from 33 Countries</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>AEA Web - American Economic Journal: Macroeconomics - 11(1):132 - Abstract</t>
+  </si>
+  <si>
+    <t>Data set</t>
+  </si>
+  <si>
+    <t>Tasa Representativa del Mercado (TRM - Peso por dólar)</t>
+  </si>
+  <si>
+    <t>Data since 27/11/1991. Web scraping in python</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>https://www.banrep.gov.co/en/node/50244</t>
+  </si>
+  <si>
+    <t>Politica monetaria</t>
+  </si>
+  <si>
+    <t>Noticia</t>
+  </si>
+  <si>
+    <t>Dólar cerró en $3.746,58 por las apuestas de la Fed para endurecer política monetaria</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3jfkPGX</t>
+  </si>
+  <si>
+    <t>Can oil prices forecast exchange rates?</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0261560615000479</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Lenguaje</t>
+  </si>
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>Petróleo vuelve a superar US$100 en medio de la advertencia de crisis de suministro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3wmCfch </t>
-  </si>
-  <si>
-    <t>Noticia la Repblica</t>
-  </si>
-  <si>
-    <t>Noticia de la República</t>
-  </si>
-  <si>
-    <t>Importaciones aumentaron 58,3% en enero y llegaron al total de US$6.050 millones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3ugB7Ek  </t>
-  </si>
-  <si>
-    <t>Petroleo</t>
-  </si>
-  <si>
-    <t>Importaciones</t>
-  </si>
-  <si>
-    <t>Tasa externa USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3wnAaNp </t>
-  </si>
-  <si>
-    <t>Los bancos centrales del continente acuden a subidas de tasas por la presión del IPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3N6ITti </t>
-  </si>
-  <si>
-    <t>¿Cómo impactará subida de la tasa de la FED en las próximas decisiones del Emisor?</t>
-  </si>
-  <si>
-    <t>Tasa domestica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3L2Yfx8 </t>
-  </si>
-  <si>
-    <t>Más que por alza de intervención Fed, tasa del Emisor estará impulsada por inflación</t>
-  </si>
-  <si>
-    <t>Fuerte caída del petróleo por confinamiento en China y negociaciones Rusia-Ucrania</t>
-  </si>
-  <si>
-    <t>https://bit.ly/3N5KxuW</t>
-  </si>
-  <si>
-    <t>Politica monetaria BR</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>Informe de politica monetaria 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3qlrP91 </t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Tipo de documento</t>
-  </si>
-  <si>
-    <t>Fuente</t>
+    <t>¿Tiene automatización?</t>
+  </si>
+  <si>
+    <t>¿Qué hace?</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>No dice especifícamente, es un grupo de colaboradores</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Cesium</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>Cesium is an open source library that allows users to:
+extract features from raw time series data (see list),
+build machine learning models from these features, and
+generate predictions for new data.</t>
+  </si>
+  <si>
+    <t>https://github.com/cesium-ml/cesium          https://pypi.org/project/cesium/</t>
+  </si>
+  <si>
+    <t>Jupyter Notebook / Python</t>
+  </si>
+  <si>
+    <t>TSFRESH</t>
+  </si>
+  <si>
+    <t>TSFRESH or Time Series Feature extraction based on scalable hypothesis tests is a Python package with various feature extraction methods and a robust feature selection algorithm. The package automatically calculates a large number of time series characteristics and contains methods to evaluate the explaining power and importance of such characteristics for regression or classification tasks. Advantages include:
+It is compatible with sklearn, pandas and numpy
+It allows anyone to easily add their favorite features
+It both runs on the local machine or even on a cluster</t>
+  </si>
+  <si>
+    <t>https://tsfresh.readthedocs.io/en/latest/    https://github.com/blue-yonder/tsfresh</t>
+  </si>
+  <si>
+    <t>Ross Taylor</t>
+  </si>
+  <si>
+    <t>Pyflux</t>
+  </si>
+  <si>
+    <r>
+      <t>PyFlux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is an open source time series library for Python. The library has a good array of modern time series models, as well as a flexible array of inference options (frequentist and Bayesian) that can be applied to these models. By combining breadth of models with breadth of inference, PyFlux allows for a probabilistic approach to time series modelling.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/RJT1990/pyflux                   https://pyflux.readthedocs.io/en/latest/index.html</t>
+  </si>
+  <si>
+    <t>Anthony Bagnall, Franz Király, Markus Löning</t>
+  </si>
+  <si>
+    <t>Sktime</t>
+  </si>
+  <si>
+    <t>Sktime is a unified python framework that provides API for machine learning with time series data. The framework also provides scikit-learn compatible tools to build, tune and validate time series models for multiple learning problems, including time series classification, time series regression and forecasting.</t>
+  </si>
+  <si>
+    <t>https://github.com/alan-turing-institute/sktime       https://www.sktime.org/en/latest/index.html</t>
+  </si>
+  <si>
+    <t>Julien Herzen and Francesco Lässig and Samuele Giuliano Piazzetta and Thomas Neuer and Léo Tafti and Guillaume Raille and Tomas Van Pottelbergh and Marek Pasieka and Andrzej Skrodzki and Nicolas Huguenin and Maxime Dumonal and Jan Kościsz and Dennis Bader and Frédérick Gusset and Mounir Benheddi and Camila Williamson and Michal Kosinski and Matej Petrik and Gaël Grosch</t>
+  </si>
+  <si>
+    <t>Darts</t>
+  </si>
+  <si>
+    <t>darts is a Python library for easy manipulation and forecasting of time series. It contains a variety of models, from classics such as ARIMA to deep neural networks. The models can all be used in the same way, using fit() and predict() functions, similar to scikit-learn. The library also makes it easy to backtest models, combine the predictions of several models, and take external data into account. Darts supports both univariate and multivariate time series and models. The ML-based models can be trained on potentially large datasets containing multiple time series, and some of the models offer a rich support for probabilistic forecasting.</t>
+  </si>
+  <si>
+    <t>https://github.com/unit8co/darts#:~:text=darts%20is%20a%20python%20library,%2C%20similar%20to%20scikit%2Dlearn.         https://arxiv.org/pdf/2110.03224.pdf</t>
+  </si>
+  <si>
+    <t>Xiaodong Jiang y otros contribuidores</t>
+  </si>
+  <si>
+    <t>Python / Jupyter Notebook</t>
+  </si>
+  <si>
+    <t>Kats</t>
+  </si>
+  <si>
+    <t>Kats is a toolkit to analyze time series data, a lightweight, easy-to-use, and generalizable framework to perform time series analysis. Time series analysis is an essential component of Data Science and Engineering work at industry, from understanding the key statistics and characteristics, detecting regressions and anomalies, to forecasting future trends. Kats aims to provide the one-stop shop for time series analysis, including detection, forecasting, feature extraction/embedding, multivariate analysis, etc.</t>
+  </si>
+  <si>
+    <t>https://github.com/facebookresearch/Kats</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Python / R</t>
+  </si>
+  <si>
+    <t>Prophet: Automatic Forecasting Procedure</t>
+  </si>
+  <si>
+    <t>Prophet is a procedure for forecasting time series data based on an additive model where non-linear trends are fit with yearly, weekly, and daily seasonality, plus holiday effects. It works best with time series that have strong seasonal effects and several seasons of historical data. Prophet is robust to missing data and shifts in the trend, and typically handles outliers well.</t>
+  </si>
+  <si>
+    <t>https://facebook.github.io/prophet/</t>
+  </si>
+  <si>
+    <t> Ram Seshadri Nikhil Gupta.</t>
+  </si>
+  <si>
+    <t>Auto_TS: Auto_TimeSeries</t>
+  </si>
+  <si>
+    <t>is a complex model-building utility for time series data. Because it automates many tasks involved in a complex endeavor, it assumes many intelligent defaults — but you can change them. Auto_TimeSeries rapidly builds predictive models based on Statsmodels ARIMA, Seasonal ARIMA, and Scikit-Learn ML. It automatically selects the best model that gives the best score specified. Auto_TimeSeries enables you to build and select multiple time series models using techniques such as ARIMA, SARIMAX, VAR, decomposable (trend + seasonality + holidays) models, and ensemble Machine Learning models.</t>
+  </si>
+  <si>
+    <t>https://github.com/AutoViML/Auto_TS</t>
+  </si>
+  <si>
+    <t>Uber Technologies</t>
+  </si>
+  <si>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>Orbit is a Python package for Bayesian time series forecasting and inference. It provides a familiar and intuitive initialize-fit-predict interface for time series tasks, while utilizing probabilistic programming languages under the hood.</t>
+  </si>
+  <si>
+    <t>https://github.com/uber/orbit    https://orbit-ml.readthedocs.io/en/stable/#</t>
+  </si>
+  <si>
+    <t>Isaac Godfried y colaboradores</t>
+  </si>
+  <si>
+    <t>Flow forecast</t>
+  </si>
+  <si>
+    <t>Flow Forecast (FF) is an open-source deep learning for time series forecasting framework. It provides all the latest state of the art models (transformers, attention models, GRUs) and cutting edge concepts with easy to understand interpretability metrics, cloud provider integration, and model serving capabilities. Flow Forecast was the first time series framework to feature support for transformer based models and remains the only true end-to-end deep learning for time series forecasting framework.</t>
+  </si>
+  <si>
+    <t>https://flow-forecast.atlassian.net/wiki/spaces/FF/overview?homepageId=557195</t>
   </si>
   <si>
     <t>Tema</t>
   </si>
   <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Utilidad</t>
+  </si>
+  <si>
     <t>Pruebas de raices unitarias</t>
   </si>
   <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Utilidad</t>
+    <t>Unit root tests</t>
+  </si>
+  <si>
+    <t>Summary table of URT in R</t>
+  </si>
+  <si>
+    <t>(PDF) Unit root tests (researchgate.net)</t>
+  </si>
+  <si>
+    <t>4 Unit root tests</t>
   </si>
   <si>
     <t>Efficient Unit Roots Tests</t>
   </si>
   <si>
-    <t>Summary table of URT in R</t>
-  </si>
-  <si>
-    <t>Unit root tests</t>
-  </si>
-  <si>
-    <t>(PDF) Unit root tests (researchgate.net)</t>
-  </si>
-  <si>
     <t>https://faculty.washington.edu/ezivot/econ584/notes/unitroot.pdf</t>
   </si>
   <si>
-    <t>4 Unit root tests</t>
+    <t>Unit root CADF Testing in R</t>
+  </si>
+  <si>
+    <t>CADF test</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/CADFtest/vignettes/CADFtest.pdf</t>
+  </si>
+  <si>
+    <t>List of stationarity test</t>
+  </si>
+  <si>
+    <t>https://stats.stackexchange.com/questions/30569/what-is-the-difference-between-a-stationary-test-and-a-unit-root-test</t>
+  </si>
+  <si>
+    <t>Leybourne-McCabe</t>
+  </si>
+  <si>
+    <t>Python implementation</t>
+  </si>
+  <si>
+    <t>https://github.com/JimVaranelli/Leybourne-McCabe/blob/master/Leybourne.py</t>
+  </si>
+  <si>
+    <t>Language</t>
   </si>
   <si>
     <t>Package</t>
@@ -179,24 +536,30 @@
     <t>Null hypotesis</t>
   </si>
   <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Disadvantages</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>tseries</t>
   </si>
   <si>
     <t>adf.test</t>
   </si>
   <si>
-    <t>Assumptions</t>
-  </si>
-  <si>
-    <t>Disadvantages</t>
+    <t>Augmented Dickey Fuller (1984)</t>
+  </si>
+  <si>
+    <t>Unit roots</t>
   </si>
   <si>
     <t>The order of the AR is ad hoc.</t>
   </si>
   <si>
-    <t>Augmented Dickey Fuller (1984)</t>
-  </si>
-  <si>
     <t>pp.test</t>
   </si>
   <si>
@@ -209,6 +572,9 @@
     <t>Stationary</t>
   </si>
   <si>
+    <t>Dice que es estacionario cuando no lo es.</t>
+  </si>
+  <si>
     <t>urca</t>
   </si>
   <si>
@@ -221,200 +587,64 @@
     <t>ur.sp</t>
   </si>
   <si>
+    <t xml:space="preserve">Schmidt &amp; Phillips </t>
+  </si>
+  <si>
     <t>ur.za</t>
   </si>
   <si>
-    <t>https://cran.r-project.org/web/packages/CADFtest/vignettes/CADFtest.pdf</t>
-  </si>
-  <si>
-    <t>CADF test</t>
-  </si>
-  <si>
-    <t>Unit root CADF Testing in R</t>
-  </si>
-  <si>
-    <t>https://stats.stackexchange.com/questions/30569/what-is-the-difference-between-a-stationary-test-and-a-unit-root-test</t>
-  </si>
-  <si>
-    <t>List of stationarity test</t>
-  </si>
-  <si>
-    <t>https://github.com/JimVaranelli/Leybourne-McCabe/blob/master/Leybourne.py</t>
-  </si>
-  <si>
-    <t>Python implementation</t>
-  </si>
-  <si>
-    <t>Leybourne-McCabe</t>
-  </si>
-  <si>
-    <t>Comparación y evaluación de pronosticos de la Tasa Representativa del Mercado TRM</t>
-  </si>
-  <si>
-    <t>TRM</t>
-  </si>
-  <si>
-    <t>https://bit.ly/3LdaEOM</t>
-  </si>
-  <si>
-    <t>Modelación y pronóstico de la TRM a partir de un modelo de saltos de difusión, un modelo de Black and Scholes y un modelo ARIMA, así como la comparación de los resultados de pronóstico entre ellos</t>
-  </si>
-  <si>
-    <t>https://bit.ly/3qEZfzA</t>
-  </si>
-  <si>
-    <t>EFECTOS DE LOS CHOQUES DE LOS PRECIOS EN EL WTI SOBRE LA TASA DE CAMBIO (TRM) EN COLOMBIA</t>
-  </si>
-  <si>
-    <t>https://bit.ly/3uznfW3</t>
-  </si>
-  <si>
-    <t>TRM y Petroleo WTI</t>
-  </si>
-  <si>
-    <t>Efecto de las variables macroeconómicas globales y locales sobre el comportamiento de los futuros de la TRM en Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRM </t>
-  </si>
-  <si>
-    <t>https://bit.ly/36Nkrwc</t>
-  </si>
-  <si>
-    <t>PROYECCIÓN DE LA TASA DE CAMBIO DE COLOMBIA BAJO CONDICIONES DE PPA: EVIDENCIA EMPÍRICA USANDO VAR</t>
-  </si>
-  <si>
-    <t>https://bit.ly/36pqjfv</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>The exchange rate and macroeconomic determinants: Time-varying transitional dynamics</t>
-  </si>
-  <si>
-    <t>The exchange rate and macroeconomic determinants: Time-varying transitional dynamics - ScienceDirect</t>
-  </si>
-  <si>
-    <t>Exchange rate dynamics in a peripheral monetary economy on JSTOR</t>
-  </si>
-  <si>
-    <t>Journal article</t>
-  </si>
-  <si>
-    <t>Exchange rate dynamics in a peripheral monetary economy</t>
-  </si>
-  <si>
-    <t>Why is it so difficult to beat the random walk forecast of exchange rates?</t>
-  </si>
-  <si>
-    <t>Título</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Why is it so difficult to beat the random walk forecast of exchange rates? - ScienceDirect</t>
-  </si>
-  <si>
-    <t>Exchange rate forecasting on a napkin</t>
-  </si>
-  <si>
-    <t>Exchange rate forecasting on a napkin - ScienceDirect</t>
-  </si>
-  <si>
-    <t>Forecasting exchange rates using principal components - ScienceDirect</t>
-  </si>
-  <si>
-    <t>Forecasting exchange rates using principal components</t>
-  </si>
-  <si>
-    <t>Leer Isa o Mari</t>
-  </si>
-  <si>
-    <t>No sé</t>
-  </si>
-  <si>
-    <t>Exchange Rates, Interest Parity, and the Carry Trade</t>
-  </si>
-  <si>
-    <t>Exchange Rates, Interest Parity, and the Carry Trade | Oxford Research Encyclopedias</t>
-  </si>
-  <si>
-    <t>Liquidity and Exchange Rates: An Empirical Investigation | NBER</t>
-  </si>
-  <si>
-    <t>Liquidity and Exchange Rates: An Empirical Investigation</t>
-  </si>
-  <si>
-    <t>Working paper</t>
-  </si>
-  <si>
-    <t>Can commodity prices forecast exchange rates? - ScienceDirect</t>
-  </si>
-  <si>
-    <t>Can commodity prices forecast exchange rates?</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>When Is Foreign Exchange Intervention Effective? Evidence from 33 Countries</t>
-  </si>
-  <si>
-    <t>AEA Web - American Economic Journal: Macroeconomics - 11(1):132 - Abstract</t>
-  </si>
-  <si>
-    <t>Extra</t>
-  </si>
-  <si>
-    <t>Data set</t>
-  </si>
-  <si>
-    <t>https://www.banrep.gov.co/en/node/50244</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Tasa Representativa del Mercado (TRM - Peso por dólar)</t>
-  </si>
-  <si>
-    <t>Data since 27/11/1991. Web scraping in python</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schmidt &amp; Phillips </t>
-  </si>
-  <si>
     <t xml:space="preserve">Zivot }&amp; Andrews </t>
   </si>
   <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Unit roots</t>
-  </si>
-  <si>
-    <t>Dice que es estacionario cuando no lo es.</t>
-  </si>
-  <si>
-    <t>Adrian</t>
+    <t>EL COMPORTAMIENTO DEL PRECIO DEL PETRÓLEO Y LA VOLATILIDAD EN LA TASA DE CAMBIO: ANÁLISIS DE IMPACTO DE LAS VARIACIONES DEL WTI Y DE LA TASA DE INTERÉS REFERENCIA SOBRE LA TASA DE CAMBIO NOMINAL EN COLOMBIA, PERIODO 2013-2015</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3sivwNP</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Country/Region</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Main contributions</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>LIQUIDITY AND EXCHANGE RATES: AN EMPIRICAL INVESTIGATION</t>
+  </si>
+  <si>
+    <t>Charles Engel Steve Pak Yeung Wu</t>
+  </si>
+  <si>
+    <t>EEUU</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Encontramos fuerte evidencia empírica de que los fundamentos económicos bien pueden explicar los movimientos del tipo de cambio nominal. La innovación importante es que incluimos el rendimiento de liquidez de los bonos del gobierno como variable explicativa. Encontramos evidencia impresionante de que los cambios en el rendimiento de la liquidez son significativos para explicar los cambios en el tipo de cambio para todos los países del G10. Además, después de controlar por los rendimientos de liquidez, los determinantes tradicionales de los tipos de cambio (ajuste hacia la paridad del poder adquisitivo y shocks monetarios) también resultan económica y estadísticamente significativos. Mostramos cómo estas relaciones surgen de un modelo neokeynesiano canónico de dos países con rendimientos de liquidez. Además, encontramos un papel para el riesgo de incumplimiento soberano y las fricciones del mercado de swaps de divisas.</t>
+  </si>
+  <si>
+    <t>El rendimiento de liquidez se puede asociar con la desviación de la paridad de interés descubierta que ahora se introduce como una característica estándar en los modelos neokeynesianos de economía abierta</t>
+  </si>
+  <si>
+    <t>Nuestra táctica es buscar el papel del rendimiento de liquidez de los bonos del gobierno en la conducción de los tipos de cambio.
+Encontramos para cada una de las llamadas monedas del G10 que el rendimiento de liquidez relativo (el rendimiento del país de origen en relación con los rendimientos del país extranjero) tiene un poder explicativo significativo para los movimientos del tipo de cambio.
+Nuestro trabajo empírico encuentra evidencia sólida del papel de los rendimientos de liquidez del gobierno, las tasas de interés y el ajuste hacia la paridad del poder adquisitivo para diez monedas diferentes.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,12 +722,32 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFFC000"/>
+      <color rgb="FF24292F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
       <name val="Candara"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,12 +778,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8F565"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -665,19 +921,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,7 +964,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -702,28 +973,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="3" builtinId="27"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="36">
     <dxf>
       <font>
         <strike val="0"/>
@@ -906,6 +1203,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1083,6 +1383,134 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Candara"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1385,6 +1813,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFF8F565"/>
     </mruColors>
   </colors>
@@ -1406,22 +1835,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Variables" displayName="Variables" ref="A1:G23" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:G23" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5D274B06-4DAE-144E-90B9-0BA3ED60490F}" name="Variable" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{312D9853-9B84-40C9-B4A4-EDC49298F048}" name="Date" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{9D30B192-68D5-AC48-A02C-FDA7B31B2E20}" name="Tipo de documento" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{622B38FB-511E-49B0-AF75-C0496083B0B6}" name="Título" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{DD15A7AB-6B34-485B-AF64-148F61BD6674}" name="Observaciones" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{B5254A15-6DAF-4046-8E1A-41B966E4E7FB}" name="Estado" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{DDFF48D1-66E2-CC43-BC52-DF6D61D08A0D}" name="Fuente" totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}" name="Variables" displayName="Variables" ref="A1:I25" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+  <autoFilter ref="A1:I25" xr:uid="{DFC40022-B6E0-5248-892C-DB7F37657C4A}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{5D274B06-4DAE-144E-90B9-0BA3ED60490F}" name="Variables" totalsRowLabel="Total" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{312D9853-9B84-40C9-B4A4-EDC49298F048}" name="Date" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{9D30B192-68D5-AC48-A02C-FDA7B31B2E20}" name="Tipo de documento" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{622B38FB-511E-49B0-AF75-C0496083B0B6}" name="Título" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{2DCC914C-9977-47CE-A605-C3200B768637}" name="Modelos y métodos de estimación empleados" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{33A55FB5-30B3-47A2-9C76-044D5690C077}" name="Resultados ¿Sirvió? ¿Qué tanto?" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{DD15A7AB-6B34-485B-AF64-148F61BD6674}" name="Observaciones" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{B5254A15-6DAF-4046-8E1A-41B966E4E7FB}" name="Estado" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{DDFF48D1-66E2-CC43-BC52-DF6D61D08A0D}" name="Fuente" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{40F1366B-0EF6-425E-AEA1-63E74FF79652}" name="Table4" displayName="Table4" ref="B2:G12" totalsRowShown="0">
+  <autoFilter ref="B2:G12" xr:uid="{40F1366B-0EF6-425E-AEA1-63E74FF79652}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{33292E80-3B25-4D75-A0AF-0DB7BE0F698E}" name="Autor"/>
+    <tableColumn id="2" xr3:uid="{6CB88750-69CB-4D63-9223-32E446310C10}" name="Lenguaje"/>
+    <tableColumn id="3" xr3:uid="{5307551B-F98D-4B83-B809-93F8AD594964}" name="Nombre"/>
+    <tableColumn id="4" xr3:uid="{3DA73532-AEE4-4986-9E65-2E7134AE823D}" name="¿Tiene automatización?"/>
+    <tableColumn id="5" xr3:uid="{29B1F1CA-39BB-4475-A1D9-1D90AC61B643}" name="¿Qué hace?"/>
+    <tableColumn id="6" xr3:uid="{E21A541F-FC97-4B13-8385-52F3D39BD47D}" name="Link" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0A5E652-BA55-7D40-82DA-7B0F8853B44C}" name="Tabla2" displayName="Tabla2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A1:E6" xr:uid="{C0A5E652-BA55-7D40-82DA-7B0F8853B44C}"/>
   <tableColumns count="5">
@@ -1435,7 +1881,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF45F2D4-1B4A-40CA-ACFB-63BED804DC74}" name="Table3" displayName="Table3" ref="B2:H9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B2:H9" xr:uid="{FF45F2D4-1B4A-40CA-ACFB-63BED804DC74}"/>
   <tableColumns count="7">
@@ -1452,7 +1898,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1748,7 +2194,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F1" dT="2022-03-29T02:38:23.49" personId="{6BE87DBE-91F1-4E63-BE5A-3FA704451263}" id="{3E1E6C34-57B1-4051-80B4-D0E289F6FEA4}">
+  <threadedComment ref="H1" dT="2022-03-29T02:38:23.49" personId="{6BE87DBE-91F1-4E63-BE5A-3FA704451263}" id="{3E1E6C34-57B1-4051-80B4-D0E289F6FEA4}">
     <text>Rojo: Sin revisar
 Amarillo: En revisión
 Verde: Revisado
@@ -1759,562 +2205,976 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B040F3FE-2291-4213-9DA7-4BDF5F8EFDCD}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="93.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="6"/>
-    <col min="7" max="7" width="96.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="6"/>
+    <col min="5" max="5" width="51.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="6"/>
+    <col min="9" max="9" width="96.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="5" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="B7" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="10" t="s">
+      <c r="D7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2022</v>
+      </c>
       <c r="C8" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2008</v>
+      </c>
       <c r="C9" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2019</v>
+      </c>
       <c r="C10" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2018</v>
+      </c>
       <c r="C11" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8">
+        <v>2016</v>
+      </c>
       <c r="C12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>172</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2009</v>
+      </c>
       <c r="C13" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>2011</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>2013</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>2003</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>2020</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>2019</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>2019</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8">
         <v>2018</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8">
         <v>2020</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8">
         <v>2019</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B23" s="13">
         <v>2022</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>105</v>
+        <v>69</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="13">
+        <v>2015</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{90BC1AE4-D7BA-435C-A8DF-0CAF6788B158}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{6335E74F-18FA-4670-9F8D-4F662C191C03}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{6103154C-AB06-4B83-B37F-88E5BB929870}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{116DF696-9304-432C-A4AA-20752210340D}"/>
-    <hyperlink ref="G7" r:id="rId5" xr:uid="{8D47FE61-FA95-4118-9C1F-E786403B5670}"/>
-    <hyperlink ref="G2" r:id="rId6" xr:uid="{BA9BBF5E-9F63-40BB-BC83-987CED5E1885}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{77AA0D83-7EAA-4BCB-82D1-5A8FC3D963F8}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{3822AB08-3A3E-45E0-9E0E-04FEFE64C450}"/>
-    <hyperlink ref="G14" r:id="rId9" display="https://www.sciencedirect.com/science/article/abs/pii/S1062940811000064?casa_token=Sh_P_mp_7DYAAAAA:lCFrsjKuUulZ65pcOcyJtjinpxciTLnVUuTqwICmX4gAWSWOv-lC5T8O41KFlJ0CuNGgKOBRWws" xr:uid="{04902175-CE83-4FD5-A445-E26573061A3B}"/>
-    <hyperlink ref="G15" r:id="rId10" display="https://www.jstor.org/stable/23469863?seq=1" xr:uid="{1F3D66BE-757E-4F95-A2DC-AF2AF58402F9}"/>
-    <hyperlink ref="G16" r:id="rId11" display="https://www.sciencedirect.com/science/article/abs/pii/S0022199602000600?casa_token=2JGoBa5PH1AAAAAA:2Q_si3XMDnRAAvyyVNi0_Uc992Ug0NAZh7foqBjsannbVjSScyfmuFkSW0J7d1pmIC8fnN535-s" xr:uid="{86934073-37A0-4641-A2A0-78C29B295BD9}"/>
-    <hyperlink ref="G17" r:id="rId12" display="https://www.sciencedirect.com/science/article/abs/pii/S026156061830192X?casa_token=aWwU043X6JEAAAAA:-mpNMFrrI4-JO2KngFFUkm_zbB2NqN-obHeqYF63eou3KjsmnJNWjboddrx2iC7zRRaWd-lZj6c" xr:uid="{2BB71505-CF86-40A8-BFED-899130582795}"/>
-    <hyperlink ref="G18" r:id="rId13" display="https://www.sciencedirect.com/science/article/abs/pii/S1042443118304517?casa_token=geVp6av0PkYAAAAA:Uu118yMXCUw8OYrKy7Le8OeDHzZKJ1YK_XjLvwlEV5i-Hwc85e76Pn4zk8-aSB_5oXmszSAUzdw" xr:uid="{1D65313B-6590-44CE-A661-046180A655A4}"/>
-    <hyperlink ref="G19" r:id="rId14" display="https://oxfordre.com/view/10.1093/acrefore/9780190625979.001.0001/acrefore-9780190625979-e-315" xr:uid="{06415AB0-6490-4A37-9D9F-2AC16B5FF538}"/>
-    <hyperlink ref="G20" r:id="rId15" display="https://www.nber.org/papers/w25397" xr:uid="{B517B450-91E0-4BC9-9CF2-99DFDE1CDF5D}"/>
-    <hyperlink ref="G21" r:id="rId16" display="https://www.sciencedirect.com/science/article/pii/S014098832030058X?casa_token=lvteMIiiiDwAAAAA:4fPs2dQpkOw2YsVs34Ljr4PWn7JSUgT_6IhH3VJ5I70tZtv3LNT--0bK_sZRFj0zGh8q2zW3vpg" xr:uid="{FA3CE04C-C5ED-4A9A-9014-6DCCF0A94F4F}"/>
-    <hyperlink ref="G22" r:id="rId17" display="https://pubs.aeaweb.org/doi/pdfplus/10.1257/mac.20150317" xr:uid="{5E64A5A2-269E-4CA1-A444-9870A82D4EC4}"/>
-    <hyperlink ref="G23" r:id="rId18" xr:uid="{90A62FB6-09E5-40EA-A000-43224542DA37}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{90BC1AE4-D7BA-435C-A8DF-0CAF6788B158}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{6335E74F-18FA-4670-9F8D-4F662C191C03}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{6103154C-AB06-4B83-B37F-88E5BB929870}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{116DF696-9304-432C-A4AA-20752210340D}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{8D47FE61-FA95-4118-9C1F-E786403B5670}"/>
+    <hyperlink ref="I2" r:id="rId6" xr:uid="{BA9BBF5E-9F63-40BB-BC83-987CED5E1885}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{77AA0D83-7EAA-4BCB-82D1-5A8FC3D963F8}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{3822AB08-3A3E-45E0-9E0E-04FEFE64C450}"/>
+    <hyperlink ref="I14" r:id="rId9" display="https://www.sciencedirect.com/science/article/abs/pii/S1062940811000064?casa_token=Sh_P_mp_7DYAAAAA:lCFrsjKuUulZ65pcOcyJtjinpxciTLnVUuTqwICmX4gAWSWOv-lC5T8O41KFlJ0CuNGgKOBRWws" xr:uid="{04902175-CE83-4FD5-A445-E26573061A3B}"/>
+    <hyperlink ref="I15" r:id="rId10" display="https://www.jstor.org/stable/23469863?seq=1" xr:uid="{1F3D66BE-757E-4F95-A2DC-AF2AF58402F9}"/>
+    <hyperlink ref="I16" r:id="rId11" display="https://www.sciencedirect.com/science/article/abs/pii/S0022199602000600?casa_token=2JGoBa5PH1AAAAAA:2Q_si3XMDnRAAvyyVNi0_Uc992Ug0NAZh7foqBjsannbVjSScyfmuFkSW0J7d1pmIC8fnN535-s" xr:uid="{86934073-37A0-4641-A2A0-78C29B295BD9}"/>
+    <hyperlink ref="I17" r:id="rId12" display="https://www.sciencedirect.com/science/article/abs/pii/S026156061830192X?casa_token=aWwU043X6JEAAAAA:-mpNMFrrI4-JO2KngFFUkm_zbB2NqN-obHeqYF63eou3KjsmnJNWjboddrx2iC7zRRaWd-lZj6c" xr:uid="{2BB71505-CF86-40A8-BFED-899130582795}"/>
+    <hyperlink ref="I18" r:id="rId13" display="https://www.sciencedirect.com/science/article/abs/pii/S1042443118304517?casa_token=geVp6av0PkYAAAAA:Uu118yMXCUw8OYrKy7Le8OeDHzZKJ1YK_XjLvwlEV5i-Hwc85e76Pn4zk8-aSB_5oXmszSAUzdw" xr:uid="{1D65313B-6590-44CE-A661-046180A655A4}"/>
+    <hyperlink ref="I19" r:id="rId14" display="https://oxfordre.com/view/10.1093/acrefore/9780190625979.001.0001/acrefore-9780190625979-e-315" xr:uid="{06415AB0-6490-4A37-9D9F-2AC16B5FF538}"/>
+    <hyperlink ref="I20" r:id="rId15" display="https://www.nber.org/papers/w25397" xr:uid="{B517B450-91E0-4BC9-9CF2-99DFDE1CDF5D}"/>
+    <hyperlink ref="I21" r:id="rId16" display="https://www.sciencedirect.com/science/article/pii/S014098832030058X?casa_token=lvteMIiiiDwAAAAA:4fPs2dQpkOw2YsVs34Ljr4PWn7JSUgT_6IhH3VJ5I70tZtv3LNT--0bK_sZRFj0zGh8q2zW3vpg" xr:uid="{FA3CE04C-C5ED-4A9A-9014-6DCCF0A94F4F}"/>
+    <hyperlink ref="I22" r:id="rId17" display="https://pubs.aeaweb.org/doi/pdfplus/10.1257/mac.20150317" xr:uid="{5E64A5A2-269E-4CA1-A444-9870A82D4EC4}"/>
+    <hyperlink ref="I23" r:id="rId18" xr:uid="{90A62FB6-09E5-40EA-A000-43224542DA37}"/>
+    <hyperlink ref="I24" r:id="rId19" xr:uid="{878BAD48-7820-46C6-BF61-4BD85CA021E5}"/>
+    <hyperlink ref="I25" r:id="rId20" xr:uid="{6FABA652-BAB5-429D-A673-DEBAB0B534CC}"/>
+    <hyperlink ref="I10" r:id="rId21" xr:uid="{06E097E3-7B87-4358-8F9E-34D60563BAD8}"/>
+    <hyperlink ref="I11" r:id="rId22" xr:uid="{540137E1-F4B1-43C0-9428-8E47CDCD9891}"/>
+    <hyperlink ref="I13" r:id="rId23" xr:uid="{EC8F7706-490F-4BA8-856F-260807CB9612}"/>
+    <hyperlink ref="I12" r:id="rId24" xr:uid="{E5307D98-FBF2-4A6F-B4D6-E2CF885CC61D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
-  <legacyDrawing r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
+  <legacyDrawing r:id="rId26"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634DC68B-4BF2-4CD9-A1C4-F2B72EC2B49A}">
+  <dimension ref="B2:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="87.140625" customWidth="1"/>
+    <col min="7" max="7" width="66.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{0410783B-8C85-4DA4-8A9B-8320F37E6BE7}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{30126864-C6C7-444E-8C0A-8617D4732578}"/>
+    <hyperlink ref="G5" r:id="rId3" display="https://github.com/RJT1990/pyflux" xr:uid="{AAE1C331-D950-499B-89D2-275BD6FE09A5}"/>
+    <hyperlink ref="G6" r:id="rId4" display="https://github.com/alan-turing-institute/sktime" xr:uid="{D2C7A6F2-B679-4B1C-AE6B-CCDAA3F1BBAA}"/>
+    <hyperlink ref="G7" r:id="rId5" location=":~:text=darts%20is%20a%20python%20library,%2C%20similar%20to%20scikit%2Dlearn." display="https://github.com/unit8co/darts#:~:text=darts%20is%20a%20python%20library,%2C%20similar%20to%20scikit%2Dlearn." xr:uid="{4AF53A5D-21AD-495F-B3D1-63A4001FDA09}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{125D11C8-C49D-4C24-8F92-3C79C285D88B}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{C688BA54-E56F-4F33-AA1E-D7CA84B62605}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://www.linkedin.com/in/ram-seshadri-nyc-nj/" xr:uid="{A3CE814A-93B9-4BD7-921A-6E069D76C086}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{E3B73C68-7F34-43AD-B40B-4EA126CFC98A}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{400AB972-EEA9-4174-890B-1106A17052F3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+  <tableParts count="1">
+    <tablePart r:id="rId12"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1C6351-3367-684A-8ABE-9477B42A0BA8}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="112.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2328,7 +3188,95 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7C4D99-2DD8-42A2-92A7-BF3D47C81D2F}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="70" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D0BEF9-6A14-3443-990D-1A879ED8A51B}">
   <dimension ref="B2:H9"/>
   <sheetViews>
@@ -2336,7 +3284,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="6"/>
     <col min="2" max="2" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
@@ -2350,133 +3298,133 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>43</v>
+      <c r="B2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
